--- a/01-Class-Activities/01-Excel/3/Activities/02-Ins_BasicCharting/Solved/BasicCharts.xlsx
+++ b/01-Class-Activities/01-Excel/3/Activities/02-Ins_BasicCharting/Solved/BasicCharts.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\OneDrive\Documents\WorkAndSchool\TeachingAssistant\DataViz\DataViz-Lesson-Plans\01-Lesson-Plans\01-Excel\3\Activities\02-Ins_BasicCharting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\98452\DataViz-Lesson-Plans\01-Lesson-Plans\01-Excel\3\Activities\02-Ins_BasicCharting\Solved\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="F83C7F0B9C5BB36C676B768E03FEC89EF1BFA6B5" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{F5E47B7C-E461-45D1-AFA9-F37C2DE297AD}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14610" windowHeight="14070" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14610" windowHeight="14070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Favorite Ice Cream Flavors" sheetId="1" r:id="rId1"/>
@@ -106,7 +105,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -188,7 +187,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{A4A03B86-3CB8-4618-86F8-8E509C0ED84A}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -244,6 +243,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -534,6 +534,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -759,6 +760,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -912,6 +914,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1261,6 +1264,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1342,6 +1346,1403 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Favorite Ice Cream Colors</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Favorite Ice Cream Flavors'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of Faves</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Favorite Ice Cream Flavors'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Vanilla</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Chocolate</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Strawberry</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mint</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Rocky Road</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Rainbow Sherbert</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Butter Pecan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Cookie Dough</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Coffee</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Neapolitan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Favorite Ice Cream Flavors'!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1470-4AC8-8FE3-2FB7FC05551F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="315"/>
+        <c:overlap val="-40"/>
+        <c:axId val="385311983"/>
+        <c:axId val="385299919"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="385311983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385299919"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="385299919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>NUMBER OF FAVORITES</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385311983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Favorite Ice Cream Flavors'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of Faves</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Favorite Ice Cream Flavors'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Vanilla</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Chocolate</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Strawberry</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mint</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Rocky Road</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Rainbow Sherbert</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Butter Pecan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Cookie Dough</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Coffee</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Neapolitan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Favorite Ice Cream Flavors'!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-33A8-4F96-8B68-CA7CB5529CA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1880,7 +3281,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ice Cream Sales'!$A$6</c15:sqref>
@@ -1909,7 +3310,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ice Cream Sales'!$B$1:$L$1</c15:sqref>
@@ -1956,7 +3357,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ice Cream Sales'!$B$6:$L$6</c15:sqref>
@@ -2003,7 +3404,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-8B0B-41D6-BCCA-6C2E7079979C}"/>
                   </c:ext>
@@ -2016,7 +3417,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ice Cream Sales'!$A$7</c15:sqref>
@@ -2045,7 +3446,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ice Cream Sales'!$B$1:$L$1</c15:sqref>
@@ -2092,7 +3493,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ice Cream Sales'!$B$7:$L$7</c15:sqref>
@@ -2139,7 +3540,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-8B0B-41D6-BCCA-6C2E7079979C}"/>
                   </c:ext>
@@ -2152,7 +3553,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ice Cream Sales'!$A$8</c15:sqref>
@@ -2183,7 +3584,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ice Cream Sales'!$B$1:$L$1</c15:sqref>
@@ -2230,7 +3631,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ice Cream Sales'!$B$8:$L$8</c15:sqref>
@@ -2277,7 +3678,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-8B0B-41D6-BCCA-6C2E7079979C}"/>
                   </c:ext>
@@ -2290,7 +3691,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ice Cream Sales'!$A$9</c15:sqref>
@@ -2321,7 +3722,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ice Cream Sales'!$B$1:$L$1</c15:sqref>
@@ -2368,7 +3769,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ice Cream Sales'!$B$9:$L$9</c15:sqref>
@@ -2415,7 +3816,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-8B0B-41D6-BCCA-6C2E7079979C}"/>
                   </c:ext>
@@ -2428,7 +3829,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ice Cream Sales'!$A$10</c15:sqref>
@@ -2459,7 +3860,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ice Cream Sales'!$B$1:$L$1</c15:sqref>
@@ -2506,7 +3907,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ice Cream Sales'!$B$10:$L$10</c15:sqref>
@@ -2553,7 +3954,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-8B0B-41D6-BCCA-6C2E7079979C}"/>
                   </c:ext>
@@ -2566,7 +3967,7 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ice Cream Sales'!$A$11</c15:sqref>
@@ -2597,7 +3998,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ice Cream Sales'!$B$1:$L$1</c15:sqref>
@@ -2644,7 +4045,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ice Cream Sales'!$B$11:$L$11</c15:sqref>
@@ -2691,7 +4092,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-8B0B-41D6-BCCA-6C2E7079979C}"/>
                   </c:ext>
@@ -2818,6 +4219,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2863,6 +4265,1670 @@
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Favorite Ice Cream Flavors</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ice Cream Sales'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vanilla</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ice Cream Sales'!$B$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ice Cream Sales'!$B$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>350</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C537-4CC7-AD0A-AFAC12662B0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ice Cream Sales'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Chocolate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ice Cream Sales'!$B$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ice Cream Sales'!$B$3:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>243</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C537-4CC7-AD0A-AFAC12662B0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ice Cream Sales'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Strawberry</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ice Cream Sales'!$B$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ice Cream Sales'!$B$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>251</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C537-4CC7-AD0A-AFAC12662B0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="389468111"/>
+        <c:axId val="389458543"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Ice Cream Sales'!$A$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Mint</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Ice Cream Sales'!$B$1:$L$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>Jan</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Feb</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Mar</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Apr</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>May</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Jun</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Jul</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Aug</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Sep</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Nov</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Dec</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Ice Cream Sales'!$B$5:$L$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>116</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>163</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>208</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>254</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>292</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>318</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>350</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>360</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>373</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>386</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-C537-4CC7-AD0A-AFAC12662B0D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Ice Cream Sales'!$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Rocky Road</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Ice Cream Sales'!$B$1:$L$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>Jan</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Feb</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Mar</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Apr</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>May</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Jun</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Jul</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Aug</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Sep</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Nov</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Dec</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Ice Cream Sales'!$B$6:$L$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>182</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>214</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>258</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>295</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>327</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>328</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>353</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>374</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>418</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>441</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>453</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-C537-4CC7-AD0A-AFAC12662B0D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Ice Cream Sales'!$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Rainbow Sherbert</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Ice Cream Sales'!$B$1:$L$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>Jan</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Feb</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Mar</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Apr</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>May</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Jun</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Jul</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Aug</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Sep</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Nov</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Dec</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Ice Cream Sales'!$B$7:$L$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>121</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>163</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>209</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>220</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>248</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>273</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-C537-4CC7-AD0A-AFAC12662B0D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Ice Cream Sales'!$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Butter Pecan</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Ice Cream Sales'!$B$1:$L$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>Jan</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Feb</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Mar</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Apr</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>May</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Jun</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Jul</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Aug</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Sep</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Nov</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Dec</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Ice Cream Sales'!$B$8:$L$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>87</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>77</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>99</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>137</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>123</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-C537-4CC7-AD0A-AFAC12662B0D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Ice Cream Sales'!$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Cookie Dough</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Ice Cream Sales'!$B$1:$L$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>Jan</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Feb</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Mar</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Apr</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>May</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Jun</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Jul</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Aug</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Sep</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Nov</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Dec</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Ice Cream Sales'!$B$9:$L$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>140</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>141</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>149</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>163</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>180</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>167</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>232</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>228</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>216</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>202</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-C537-4CC7-AD0A-AFAC12662B0D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Ice Cream Sales'!$A$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Coffee</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Ice Cream Sales'!$B$1:$L$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>Jan</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Feb</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Mar</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Apr</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>May</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Jun</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Jul</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Aug</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Sep</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Nov</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Dec</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Ice Cream Sales'!$B$10:$L$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>95</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>118</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>124</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>126</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>148</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>171</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>193</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>185</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>172</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>165</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>198</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-C537-4CC7-AD0A-AFAC12662B0D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Ice Cream Sales'!$A$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Neapolitan</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Ice Cream Sales'!$B$1:$L$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>Jan</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Feb</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Mar</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Apr</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>May</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Jun</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Jul</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Aug</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Sep</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Nov</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Dec</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Ice Cream Sales'!$B$11:$L$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>69</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>124</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>110</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>130</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>137</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>159</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>165</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>201</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-C537-4CC7-AD0A-AFAC12662B0D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="389468111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389458543"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="389458543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389468111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -3004,6 +6070,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="212">
   <cs:axisTitle>
@@ -4024,6 +7210,1051 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4535,6 +8766,502 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4613,6 +9340,66 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4621,15 +9408,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
+      <xdr:colOff>866776</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>126205</xdr:rowOff>
+      <xdr:rowOff>126206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>507206</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4649,6 +9436,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4953,19 +9770,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="20.73046875" customWidth="1"/>
+    <col min="1" max="8" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -4978,7 +9795,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4990,7 +9807,7 @@
         <v>0.11166666666666666</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5002,7 +9819,7 @@
         <v>8.8333333333333333E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5014,7 +9831,7 @@
         <v>0.10666666666666667</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5026,7 +9843,7 @@
         <v>0.15666666666666668</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5038,7 +9855,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5050,7 +9867,7 @@
         <v>0.13166666666666665</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5062,7 +9879,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5074,7 +9891,7 @@
         <v>6.8333333333333329E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5086,7 +9903,7 @@
         <v>5.6666666666666664E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5098,12 +9915,12 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>SUM(B2:B11)</f>
         <v>600</v>
@@ -5117,20 +9934,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.73046875" customWidth="1"/>
-    <col min="2" max="8" width="8.73046875" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="8" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -5165,7 +9982,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5203,7 +10020,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5241,7 +10058,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5279,7 +10096,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5317,7 +10134,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5355,7 +10172,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5393,7 +10210,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5431,7 +10248,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5469,7 +10286,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5507,7 +10324,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
